--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1215</v>
+        <v>1207.57531266709</v>
       </c>
       <c r="C2">
-        <v>1233</v>
+        <v>1229.363949408971</v>
       </c>
       <c r="D2">
-        <v>1306</v>
+        <v>1303.400515533381</v>
       </c>
       <c r="E2">
-        <v>1353</v>
+        <v>1347.133603557302</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1069</v>
+        <v>1063.261003313442</v>
       </c>
       <c r="C3">
-        <v>1088</v>
+        <v>1085.127383123723</v>
       </c>
       <c r="D3">
-        <v>1166</v>
+        <v>1158.652876897095</v>
       </c>
       <c r="E3">
-        <v>1207</v>
+        <v>1200.691650150008</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1060</v>
+        <v>1046.252314260004</v>
       </c>
       <c r="C4">
-        <v>1084</v>
+        <v>1078.054668413406</v>
       </c>
       <c r="D4">
-        <v>1185</v>
+        <v>1178.468385611193</v>
       </c>
       <c r="E4">
-        <v>1249</v>
+        <v>1242.196491198539</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1064</v>
+        <v>1050.716306735508</v>
       </c>
       <c r="C5">
-        <v>1139</v>
+        <v>1117.624230808347</v>
       </c>
       <c r="D5">
-        <v>1274</v>
+        <v>1259.317519699002</v>
       </c>
       <c r="E5">
-        <v>1351</v>
+        <v>1344.466638394197</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>369</v>
+        <v>362.6284403737303</v>
       </c>
       <c r="C6">
-        <v>385</v>
+        <v>382.5936118305735</v>
       </c>
       <c r="D6">
-        <v>446</v>
+        <v>440.1144253121332</v>
       </c>
       <c r="E6">
-        <v>483</v>
+        <v>481.0406291909139</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>548</v>
+        <v>535.7477298025481</v>
       </c>
       <c r="C7">
-        <v>579</v>
+        <v>572.1422959108772</v>
       </c>
       <c r="D7">
-        <v>677</v>
+        <v>668.115238023379</v>
       </c>
       <c r="E7">
-        <v>745</v>
+        <v>742.1278514679626</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>637</v>
+        <v>633.0908430649812</v>
       </c>
       <c r="C8">
-        <v>663</v>
+        <v>656.094413528098</v>
       </c>
       <c r="D8">
-        <v>734</v>
+        <v>724.304622318827</v>
       </c>
       <c r="E8">
-        <v>784</v>
+        <v>780.1099568704429</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>626</v>
+        <v>616.5541332604442</v>
       </c>
       <c r="C9">
-        <v>653</v>
+        <v>641.685215767798</v>
       </c>
       <c r="D9">
-        <v>704</v>
+        <v>702.5796034120372</v>
       </c>
       <c r="E9">
-        <v>748</v>
+        <v>744.3932991661693</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1029</v>
+        <v>1004.768125513142</v>
       </c>
       <c r="C10">
-        <v>1162</v>
+        <v>1143.705851369911</v>
       </c>
       <c r="D10">
-        <v>1399</v>
+        <v>1378.827377776219</v>
       </c>
       <c r="E10">
-        <v>1544</v>
+        <v>1529.336312426829</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>856</v>
+        <v>843.8725314057115</v>
       </c>
       <c r="C11">
-        <v>985</v>
+        <v>967.7911373584814</v>
       </c>
       <c r="D11">
-        <v>1225</v>
+        <v>1207.322159653751</v>
       </c>
       <c r="E11">
-        <v>1384</v>
+        <v>1373.274597388961</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>210</v>
+        <v>198.0395115404653</v>
       </c>
       <c r="C12">
-        <v>283</v>
+        <v>267.2320334165278</v>
       </c>
       <c r="D12">
-        <v>474</v>
+        <v>462.4579046651045</v>
       </c>
       <c r="E12">
-        <v>656</v>
+        <v>643.7507583034647</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>780</v>
+        <v>752.61671157398</v>
       </c>
       <c r="C13">
-        <v>916</v>
+        <v>891.4134588035242</v>
       </c>
       <c r="D13">
-        <v>1174</v>
+        <v>1152.058979345561</v>
       </c>
       <c r="E13">
-        <v>1351</v>
+        <v>1332.77621821056</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1207.57531266709</v>
+        <v>1086.347674277047</v>
       </c>
       <c r="C2">
-        <v>1229.363949408971</v>
+        <v>1127.317454448027</v>
       </c>
       <c r="D2">
-        <v>1303.400515533381</v>
+        <v>1228.258883009834</v>
       </c>
       <c r="E2">
-        <v>1347.133603557302</v>
+        <v>1288.598318299488</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1063.261003313442</v>
+        <v>1055.216169323907</v>
       </c>
       <c r="C3">
-        <v>1085.127383123723</v>
+        <v>1080.389299681654</v>
       </c>
       <c r="D3">
-        <v>1158.652876897095</v>
+        <v>1155.976969583287</v>
       </c>
       <c r="E3">
-        <v>1200.691650150008</v>
+        <v>1198.80826412927</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1046.252314260004</v>
+        <v>1168.24800816763</v>
       </c>
       <c r="C4">
-        <v>1078.054668413406</v>
+        <v>1196.886660197058</v>
       </c>
       <c r="D4">
-        <v>1178.468385611193</v>
+        <v>1281.472400244587</v>
       </c>
       <c r="E4">
-        <v>1242.196491198539</v>
+        <v>1331.571422266589</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1050.716306735508</v>
+        <v>1115.182825106267</v>
       </c>
       <c r="C5">
-        <v>1117.624230808347</v>
+        <v>1174.105954175103</v>
       </c>
       <c r="D5">
-        <v>1259.317519699002</v>
+        <v>1305.541820788051</v>
       </c>
       <c r="E5">
-        <v>1344.466638394197</v>
+        <v>1382.46925225321</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>362.6284403737303</v>
+        <v>359.9883736713294</v>
       </c>
       <c r="C6">
-        <v>382.5936118305735</v>
+        <v>378.0808617747576</v>
       </c>
       <c r="D6">
-        <v>440.1144253121332</v>
+        <v>434.2893279671807</v>
       </c>
       <c r="E6">
-        <v>481.0406291909139</v>
+        <v>474.9651707280275</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>535.7477298025481</v>
+        <v>537.6386077294949</v>
       </c>
       <c r="C7">
-        <v>572.1422959108772</v>
+        <v>570.8199137885288</v>
       </c>
       <c r="D7">
-        <v>668.115238023379</v>
+        <v>664.6641974536042</v>
       </c>
       <c r="E7">
-        <v>742.1278514679626</v>
+        <v>738.0768434910069</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>633.0908430649812</v>
+        <v>668.523923602296</v>
       </c>
       <c r="C8">
-        <v>656.094413528098</v>
+        <v>687.9863786627955</v>
       </c>
       <c r="D8">
-        <v>724.304622318827</v>
+        <v>752.0186257894115</v>
       </c>
       <c r="E8">
-        <v>780.1099568704429</v>
+        <v>804.7308986437116</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>616.5541332604442</v>
+        <v>525.1415038746791</v>
       </c>
       <c r="C9">
-        <v>641.685215767798</v>
+        <v>554.5039778401415</v>
       </c>
       <c r="D9">
-        <v>702.5796034120372</v>
+        <v>629.3273133846441</v>
       </c>
       <c r="E9">
-        <v>744.3932991661693</v>
+        <v>682.0670812054225</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1004.768125513142</v>
+        <v>867.2515377798063</v>
       </c>
       <c r="C10">
-        <v>1143.705851369911</v>
+        <v>993.7936064138909</v>
       </c>
       <c r="D10">
-        <v>1378.827377776219</v>
+        <v>1231.250951774202</v>
       </c>
       <c r="E10">
-        <v>1529.336312426829</v>
+        <v>1397.828101693464</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>843.8725314057115</v>
+        <v>702.9886369968052</v>
       </c>
       <c r="C11">
-        <v>967.7911373584814</v>
+        <v>811.8385140409308</v>
       </c>
       <c r="D11">
-        <v>1207.322159653751</v>
+        <v>1044.152153058572</v>
       </c>
       <c r="E11">
-        <v>1373.274597388961</v>
+        <v>1219.632905839723</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>198.0395115404653</v>
+        <v>187.6240538962488</v>
       </c>
       <c r="C12">
-        <v>267.2320334165278</v>
+        <v>251.7223391072976</v>
       </c>
       <c r="D12">
-        <v>462.4579046651045</v>
+        <v>435.3188208760614</v>
       </c>
       <c r="E12">
-        <v>643.7507583034647</v>
+        <v>604.2677651994221</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>752.61671157398</v>
+        <v>636.0584177506209</v>
       </c>
       <c r="C13">
-        <v>891.4134588035242</v>
+        <v>757.2541987401806</v>
       </c>
       <c r="D13">
-        <v>1152.058979345561</v>
+        <v>1005.724054390133</v>
       </c>
       <c r="E13">
-        <v>1332.77621821056</v>
+        <v>1193.423586559825</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1086.347674277047</v>
+        <v>1086</v>
       </c>
       <c r="C2">
-        <v>1127.317454448027</v>
+        <v>1127</v>
       </c>
       <c r="D2">
-        <v>1228.258883009834</v>
+        <v>1228</v>
       </c>
       <c r="E2">
-        <v>1288.598318299488</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1055.216169323907</v>
+        <v>1055</v>
       </c>
       <c r="C3">
-        <v>1080.389299681654</v>
+        <v>1080</v>
       </c>
       <c r="D3">
-        <v>1155.976969583287</v>
+        <v>1156</v>
       </c>
       <c r="E3">
-        <v>1198.80826412927</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1168.24800816763</v>
+        <v>1168</v>
       </c>
       <c r="C4">
-        <v>1196.886660197058</v>
+        <v>1197</v>
       </c>
       <c r="D4">
-        <v>1281.472400244587</v>
+        <v>1281</v>
       </c>
       <c r="E4">
-        <v>1331.571422266589</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1115.182825106267</v>
+        <v>1115</v>
       </c>
       <c r="C5">
-        <v>1174.105954175103</v>
+        <v>1174</v>
       </c>
       <c r="D5">
-        <v>1305.541820788051</v>
+        <v>1306</v>
       </c>
       <c r="E5">
-        <v>1382.46925225321</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>359.9883736713294</v>
+        <v>360</v>
       </c>
       <c r="C6">
-        <v>378.0808617747576</v>
+        <v>378</v>
       </c>
       <c r="D6">
-        <v>434.2893279671807</v>
+        <v>434</v>
       </c>
       <c r="E6">
-        <v>474.9651707280275</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>537.6386077294949</v>
+        <v>538</v>
       </c>
       <c r="C7">
-        <v>570.8199137885288</v>
+        <v>571</v>
       </c>
       <c r="D7">
-        <v>664.6641974536042</v>
+        <v>665</v>
       </c>
       <c r="E7">
-        <v>738.0768434910069</v>
+        <v>738</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>668.523923602296</v>
+        <v>669</v>
       </c>
       <c r="C8">
-        <v>687.9863786627955</v>
+        <v>688</v>
       </c>
       <c r="D8">
-        <v>752.0186257894115</v>
+        <v>752</v>
       </c>
       <c r="E8">
-        <v>804.7308986437116</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>525.1415038746791</v>
+        <v>525</v>
       </c>
       <c r="C9">
-        <v>554.5039778401415</v>
+        <v>555</v>
       </c>
       <c r="D9">
-        <v>629.3273133846441</v>
+        <v>629</v>
       </c>
       <c r="E9">
-        <v>682.0670812054225</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>867.2515377798063</v>
+        <v>867</v>
       </c>
       <c r="C10">
-        <v>993.7936064138909</v>
+        <v>994</v>
       </c>
       <c r="D10">
-        <v>1231.250951774202</v>
+        <v>1231</v>
       </c>
       <c r="E10">
-        <v>1397.828101693464</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>702.9886369968052</v>
+        <v>703</v>
       </c>
       <c r="C11">
-        <v>811.8385140409308</v>
+        <v>812</v>
       </c>
       <c r="D11">
-        <v>1044.152153058572</v>
+        <v>1044</v>
       </c>
       <c r="E11">
-        <v>1219.632905839723</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>187.6240538962488</v>
+        <v>188</v>
       </c>
       <c r="C12">
-        <v>251.7223391072976</v>
+        <v>252</v>
       </c>
       <c r="D12">
-        <v>435.3188208760614</v>
+        <v>435</v>
       </c>
       <c r="E12">
-        <v>604.2677651994221</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>636.0584177506209</v>
+        <v>636</v>
       </c>
       <c r="C13">
-        <v>757.2541987401806</v>
+        <v>757</v>
       </c>
       <c r="D13">
-        <v>1005.724054390133</v>
+        <v>1006</v>
       </c>
       <c r="E13">
-        <v>1193.423586559825</v>
+        <v>1193</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV.xlsx
@@ -428,7 +428,7 @@
         <v>1196.886660197058</v>
       </c>
       <c r="D4">
-        <v>1281.472400244587</v>
+        <v>1281.472400244588</v>
       </c>
       <c r="E4">
         <v>1331.571422266589</v>
@@ -462,7 +462,7 @@
         <v>378.0808617747576</v>
       </c>
       <c r="D6">
-        <v>434.2893279671807</v>
+        <v>434.2893279671808</v>
       </c>
       <c r="E6">
         <v>474.9651707280275</v>
@@ -479,10 +479,10 @@
         <v>570.8199137885288</v>
       </c>
       <c r="D7">
-        <v>664.6641974536042</v>
+        <v>664.6641974536043</v>
       </c>
       <c r="E7">
-        <v>738.0768434910069</v>
+        <v>738.076843491007</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -496,7 +496,7 @@
         <v>687.9863786627955</v>
       </c>
       <c r="D8">
-        <v>752.0186257894115</v>
+        <v>752.0186257894117</v>
       </c>
       <c r="E8">
         <v>804.7308986437116</v>
@@ -516,7 +516,7 @@
         <v>629.3273133846441</v>
       </c>
       <c r="E9">
-        <v>682.0670812054225</v>
+        <v>682.0670812054224</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>867.2515377798063</v>
+        <v>867.2515377798064</v>
       </c>
       <c r="C10">
-        <v>993.7936064138909</v>
+        <v>993.7936064138911</v>
       </c>
       <c r="D10">
         <v>1231.250951774202</v>
@@ -561,7 +561,7 @@
         <v>187.6240538962488</v>
       </c>
       <c r="C12">
-        <v>251.7223391072976</v>
+        <v>251.7223391072975</v>
       </c>
       <c r="D12">
         <v>435.3188208760614</v>
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>636.0584177506209</v>
+        <v>636.0584177506207</v>
       </c>
       <c r="C13">
         <v>757.2541987401806</v>
